--- a/output/sites/percent_differences_with_all_scat_est_all_scenarios_Pointe Suzanne.xlsx
+++ b/output/sites/percent_differences_with_all_scat_est_all_scenarios_Pointe Suzanne.xlsx
@@ -12,12 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">scenario</t>
   </si>
   <si>
     <t xml:space="preserve">Summarising variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
   </si>
   <si>
     <t xml:space="preserve">Fe</t>
@@ -401,31 +404,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>46</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>38</v>
+      </c>
+      <c r="G2" t="n">
+        <v>41</v>
+      </c>
+      <c r="H2" t="n">
+        <v>32</v>
+      </c>
+      <c r="I2" t="n">
         <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>36</v>
-      </c>
-      <c r="F2" t="n">
-        <v>37</v>
-      </c>
-      <c r="G2" t="n">
-        <v>32</v>
-      </c>
-      <c r="H2" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -433,24 +442,27 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
+        <v>-57</v>
+      </c>
+      <c r="D3" t="n">
         <v>-91</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-11</v>
       </c>
-      <c r="E3" t="n">
-        <v>-78</v>
-      </c>
       <c r="F3" t="n">
-        <v>-81</v>
+        <v>-75</v>
       </c>
       <c r="G3" t="n">
-        <v>-70</v>
+        <v>-80</v>
       </c>
       <c r="H3" t="n">
+        <v>-62</v>
+      </c>
+      <c r="I3" t="n">
         <v>-83</v>
       </c>
     </row>
@@ -459,25 +471,28 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>35</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G4" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H4" t="n">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="I4" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -485,25 +500,28 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="E5" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="H5" t="n">
-        <v>64</v>
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
@@ -511,25 +529,28 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-88</v>
+        <v>-55</v>
       </c>
       <c r="D6" t="n">
-        <v>-18</v>
+        <v>-91</v>
       </c>
       <c r="E6" t="n">
-        <v>-57</v>
+        <v>-17</v>
       </c>
       <c r="F6" t="n">
-        <v>-79</v>
+        <v>-60</v>
       </c>
       <c r="G6" t="n">
-        <v>-36</v>
+        <v>-80</v>
       </c>
       <c r="H6" t="n">
-        <v>-81</v>
+        <v>-38</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-84</v>
       </c>
     </row>
     <row r="7">
@@ -537,25 +558,28 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="E7" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="G7" t="n">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="H7" t="n">
-        <v>115</v>
+        <v>43</v>
+      </c>
+      <c r="I7" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -563,25 +587,28 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -589,25 +616,28 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>-85</v>
+        <v>-64</v>
       </c>
       <c r="D9" t="n">
-        <v>-24</v>
+        <v>-92</v>
       </c>
       <c r="E9" t="n">
-        <v>-37</v>
+        <v>-29</v>
       </c>
       <c r="F9" t="n">
-        <v>-78</v>
+        <v>-30</v>
       </c>
       <c r="G9" t="n">
-        <v>-6</v>
+        <v>-81</v>
       </c>
       <c r="H9" t="n">
-        <v>-80</v>
+        <v>-1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-86</v>
       </c>
     </row>
     <row r="10">
@@ -615,25 +645,28 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="H10" t="n">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/output/sites/percent_differences_with_all_scat_est_all_scenarios_Pointe Suzanne.xlsx
+++ b/output/sites/percent_differences_with_all_scat_est_all_scenarios_Pointe Suzanne.xlsx
@@ -416,13 +416,13 @@
         <v>9</v>
       </c>
       <c r="C2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="n">
         <v>46</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
@@ -474,25 +474,25 @@
         <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G4" t="n">
+        <v>42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>33</v>
+      </c>
+      <c r="I4" t="n">
         <v>44</v>
-      </c>
-      <c r="H4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -506,22 +506,22 @@
         <v>33</v>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" t="n">
         <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6">
@@ -535,19 +535,19 @@
         <v>-55</v>
       </c>
       <c r="D6" t="n">
-        <v>-91</v>
+        <v>-92</v>
       </c>
       <c r="E6" t="n">
-        <v>-17</v>
+        <v>-18</v>
       </c>
       <c r="F6" t="n">
         <v>-60</v>
       </c>
       <c r="G6" t="n">
-        <v>-80</v>
+        <v>-81</v>
       </c>
       <c r="H6" t="n">
-        <v>-38</v>
+        <v>-39</v>
       </c>
       <c r="I6" t="n">
         <v>-84</v>
@@ -561,25 +561,25 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G7" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H7" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I7" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -599,13 +599,13 @@
         <v>11</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
         <v>31</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>33</v>
@@ -625,16 +625,16 @@
         <v>-92</v>
       </c>
       <c r="E9" t="n">
-        <v>-29</v>
+        <v>-30</v>
       </c>
       <c r="F9" t="n">
-        <v>-30</v>
+        <v>-31</v>
       </c>
       <c r="G9" t="n">
         <v>-81</v>
       </c>
       <c r="H9" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I9" t="n">
         <v>-86</v>
@@ -648,25 +648,25 @@
         <v>11</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" t="n">
+        <v>17</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+      <c r="I10" t="n">
         <v>18</v>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-      <c r="I10" t="n">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
